--- a/documents/paper_work/01-Sprint_Backlog_A080_Airline_Ticket_Reservation_System_v1.0.xlsx
+++ b/documents/paper_work/01-Sprint_Backlog_A080_Airline_Ticket_Reservation_System_v1.0.xlsx
@@ -556,9 +556,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -713,10 +713,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,8 +745,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,15 +761,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -765,31 +819,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,39 +834,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,7 +916,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +940,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,67 +1018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1030,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,55 +1066,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,21 +1299,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1345,20 +1330,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,131 +1376,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -1518,7 +1518,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4488,7 +4488,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14638655" y="1129665"/>
-        <a:ext cx="8999220" cy="6438265"/>
+        <a:ext cx="8999220" cy="6623685"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4613,7 +4613,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14804390" y="1196340"/>
-        <a:ext cx="8444865" cy="6321425"/>
+        <a:ext cx="8444865" cy="6344285"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5527,10 +5527,10 @@
   </sheetPr>
   <dimension ref="A1:AA123"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D7"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.22" defaultRowHeight="16.5"/>
@@ -5745,7 +5745,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" ht="25.2" customHeight="true" spans="1:27">
+    <row r="6" ht="34" customHeight="true" spans="1:27">
       <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
     </row>
-    <row r="21" ht="25.2" customHeight="true" spans="1:27">
+    <row r="21" ht="31" customHeight="true" spans="1:27">
       <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
     </row>
-    <row r="28" ht="34.95" customHeight="true" spans="1:27">
+    <row r="28" ht="31" customHeight="true" spans="1:27">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>49</v>
       </c>
       <c r="F44" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G44" s="9">
         <v>0</v>
@@ -7505,7 +7505,7 @@
         <v>49</v>
       </c>
       <c r="F45" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45" s="9">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>49</v>
       </c>
       <c r="F46" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>49</v>
       </c>
       <c r="F47" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
@@ -9437,7 +9437,7 @@
       <c r="E88" s="13"/>
       <c r="F88" s="13">
         <f t="shared" ref="F88:K88" si="0">SUM(F3:F87)</f>
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="G88" s="13">
         <f t="shared" si="0"/>
@@ -10550,9 +10550,9 @@
   <dimension ref="A1:AA123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.22" defaultRowHeight="16.5"/>
@@ -11215,7 +11215,7 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
     </row>
-    <row r="16" ht="25.2" customHeight="true" spans="1:27">
+    <row r="16" ht="27" customHeight="true" spans="1:27">
       <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
@@ -12952,7 +12952,7 @@
       <c r="Z55" s="15"/>
       <c r="AA55" s="15"/>
     </row>
-    <row r="56" ht="25.5" spans="1:27">
+    <row r="56" spans="1:27">
       <c r="A56" s="9" t="s">
         <v>52</v>
       </c>
